--- a/备考计划.xlsx
+++ b/备考计划.xlsx
@@ -1,16 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81F88C24-1A86-4618-89C1-5807542E5314}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="315" yWindow="405" windowWidth="23685" windowHeight="12495" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="完成情况" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -88,7 +96,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -218,6 +226,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -225,15 +242,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -254,7 +262,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -329,6 +337,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -364,6 +389,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -539,11 +581,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -633,7 +675,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:U5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -647,90 +689,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="4"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="7"/>
     </row>
     <row r="2" spans="1:21" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
-      <c r="B2" s="7">
+      <c r="B2" s="4">
         <v>9.17</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="4">
         <v>9.18</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="4">
         <v>9.19</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="4">
         <v>9.1999999999999993</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="4">
         <v>9.2100000000000009</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2" s="4">
         <v>9.2200000000000006</v>
       </c>
-      <c r="H2" s="7">
+      <c r="H2" s="4">
         <v>9.23</v>
       </c>
-      <c r="I2" s="7">
+      <c r="I2" s="4">
         <v>9.24</v>
       </c>
-      <c r="J2" s="7">
+      <c r="J2" s="4">
         <v>9.25</v>
       </c>
-      <c r="K2" s="7">
+      <c r="K2" s="4">
         <v>9.26</v>
       </c>
-      <c r="L2" s="7">
+      <c r="L2" s="4">
         <v>9.27</v>
       </c>
-      <c r="M2" s="7">
+      <c r="M2" s="4">
         <v>9.2799999999999994</v>
       </c>
-      <c r="N2" s="7">
+      <c r="N2" s="4">
         <v>9.2899999999999991</v>
       </c>
-      <c r="O2" s="7">
+      <c r="O2" s="4">
         <v>10.1</v>
       </c>
-      <c r="P2" s="7">
+      <c r="P2" s="4">
         <v>10.199999999999999</v>
       </c>
-      <c r="Q2" s="7">
+      <c r="Q2" s="4">
         <v>10.3</v>
       </c>
-      <c r="R2" s="7">
+      <c r="R2" s="4">
         <v>10.4</v>
       </c>
-      <c r="S2" s="7">
+      <c r="S2" s="4">
         <v>10.5</v>
       </c>
-      <c r="T2" s="7">
+      <c r="T2" s="4">
         <v>10.6</v>
       </c>
-      <c r="U2" s="7">
+      <c r="U2" s="4">
         <v>10.7</v>
       </c>
     </row>
@@ -738,8 +780,12 @@
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
+      <c r="B3" s="1">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1">
+        <v>3</v>
+      </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -763,7 +809,9 @@
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="1"/>
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -785,12 +833,12 @@
       <c r="U4" s="1"/>
     </row>
     <row r="5" spans="1:21" ht="70.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="3">
         <f ca="1">DATE(2019,11,7)-TODAY()</f>
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -799,5 +847,6 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/备考计划.xlsx
+++ b/备考计划.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81F88C24-1A86-4618-89C1-5807542E5314}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="315" yWindow="405" windowWidth="23685" windowHeight="12495" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="315" yWindow="405" windowWidth="23685" windowHeight="12495" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="完成情况" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -96,7 +95,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -262,7 +261,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -337,23 +336,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -389,23 +371,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -581,7 +546,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -675,11 +640,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -812,7 +777,9 @@
       <c r="B4" s="1">
         <v>0</v>
       </c>
-      <c r="C4" s="1"/>
+      <c r="C4" s="1">
+        <v>3</v>
+      </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -847,6 +814,6 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/备考计划.xlsx
+++ b/备考计划.xlsx
@@ -1,16 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28B67343-06B3-44DD-97DA-A366D8262775}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="315" yWindow="405" windowWidth="23685" windowHeight="12495" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="完成情况" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -95,7 +96,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -261,7 +262,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -336,6 +337,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -371,6 +389,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -546,7 +581,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -640,11 +675,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:U5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -751,7 +786,9 @@
       <c r="C3" s="1">
         <v>3</v>
       </c>
-      <c r="D3" s="1"/>
+      <c r="D3" s="1">
+        <v>5</v>
+      </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -805,7 +842,7 @@
       </c>
       <c r="B5" s="3">
         <f ca="1">DATE(2019,11,7)-TODAY()</f>
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/备考计划.xlsx
+++ b/备考计划.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28B67343-06B3-44DD-97DA-A366D8262775}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6E3AE89-C71A-41FF-82D9-A43D40BA3625}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>全面完成课程，拉通所有知识点</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -90,6 +90,10 @@
   </si>
   <si>
     <t>离考试天数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>讲解稿下</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -585,7 +589,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -679,13 +683,14 @@
   <dimension ref="A1:U5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="12.75" customWidth="1"/>
     <col min="2" max="3" width="11.875" customWidth="1"/>
+    <col min="4" max="4" width="11.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -789,7 +794,9 @@
       <c r="D3" s="1">
         <v>5</v>
       </c>
-      <c r="E3" s="1"/>
+      <c r="E3" s="1">
+        <v>2</v>
+      </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -817,7 +824,9 @@
       <c r="C4" s="1">
         <v>3</v>
       </c>
-      <c r="D4" s="1"/>
+      <c r="D4" s="1">
+        <v>3</v>
+      </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -842,7 +851,10 @@
       </c>
       <c r="B5" s="3">
         <f ca="1">DATE(2019,11,7)-TODAY()</f>
-        <v>49</v>
+        <v>48</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/备考计划.xlsx
+++ b/备考计划.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6E3AE89-C71A-41FF-82D9-A43D40BA3625}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="完成情况" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -93,14 +92,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>讲解稿下</t>
+    <t>花木体第一节课</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -225,7 +224,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -248,6 +247,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -266,7 +268,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -341,23 +343,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -393,23 +378,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -585,11 +553,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D3" sqref="D3:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -679,11 +647,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -797,7 +765,9 @@
       <c r="E3" s="1">
         <v>2</v>
       </c>
-      <c r="F3" s="1"/>
+      <c r="F3" s="1">
+        <v>5</v>
+      </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -827,8 +797,12 @@
       <c r="D4" s="1">
         <v>3</v>
       </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+      <c r="E4" s="1">
+        <v>4</v>
+      </c>
+      <c r="F4" s="1">
+        <v>13</v>
+      </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -851,9 +825,9 @@
       </c>
       <c r="B5" s="3">
         <f ca="1">DATE(2019,11,7)-TODAY()</f>
-        <v>48</v>
-      </c>
-      <c r="D5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" s="8" t="s">
         <v>17</v>
       </c>
     </row>

--- a/备考计划.xlsx
+++ b/备考计划.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>全面完成课程，拉通所有知识点</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -93,6 +93,11 @@
   </si>
   <si>
     <t>花木体第一节课</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标题
+等速</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -238,6 +243,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -246,9 +254,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -651,7 +656,7 @@
   <dimension ref="A1:U5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -662,29 +667,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
-      <c r="T1" s="6"/>
-      <c r="U1" s="7"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="8"/>
     </row>
     <row r="2" spans="1:21" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
@@ -768,7 +773,9 @@
       <c r="F3" s="1">
         <v>5</v>
       </c>
-      <c r="G3" s="1"/>
+      <c r="G3" s="1">
+        <v>5</v>
+      </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -803,7 +810,9 @@
       <c r="F4" s="1">
         <v>13</v>
       </c>
-      <c r="G4" s="1"/>
+      <c r="G4" s="1">
+        <v>4</v>
+      </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -825,10 +834,13 @@
       </c>
       <c r="B5" s="3">
         <f ca="1">DATE(2019,11,7)-TODAY()</f>
-        <v>47</v>
-      </c>
-      <c r="F5" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>17</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/备考计划.xlsx
+++ b/备考计划.xlsx
@@ -1,16 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0E896D3-2E42-4D46-A616-898C4B55C889}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="完成情况" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -104,7 +105,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -273,7 +274,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -348,6 +349,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -383,6 +401,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -558,7 +593,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -652,11 +687,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:U5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -813,7 +848,9 @@
       <c r="G4" s="1">
         <v>4</v>
       </c>
-      <c r="H4" s="1"/>
+      <c r="H4" s="1">
+        <v>3</v>
+      </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -834,7 +871,7 @@
       </c>
       <c r="B5" s="3">
         <f ca="1">DATE(2019,11,7)-TODAY()</f>
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>17</v>

--- a/备考计划.xlsx
+++ b/备考计划.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0E896D3-2E42-4D46-A616-898C4B55C889}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79EA9958-EEB5-4CA4-95EA-13FF7C7CD776}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -690,8 +690,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:U5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -849,7 +849,7 @@
         <v>4</v>
       </c>
       <c r="H4" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>

--- a/备考计划.xlsx
+++ b/备考计划.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79EA9958-EEB5-4CA4-95EA-13FF7C7CD776}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="完成情况" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>全面完成课程，拉通所有知识点</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -99,13 +98,17 @@
   <si>
     <t>标题
 等速</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>还有三节课</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -230,7 +233,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -256,6 +259,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -274,7 +280,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -349,23 +355,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -401,23 +390,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -593,11 +565,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:E3"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -687,11 +659,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -811,7 +783,9 @@
       <c r="G3" s="1">
         <v>5</v>
       </c>
-      <c r="H3" s="1"/>
+      <c r="H3" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>

--- a/备考计划.xlsx
+++ b/备考计划.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="完成情况" sheetId="2" r:id="rId2"/>
+    <sheet name="计划" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
   <si>
     <t>全面完成课程，拉通所有知识点</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -102,6 +103,14 @@
   </si>
   <si>
     <t>还有三节课</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行测每天100题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申论每天10题</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -233,7 +242,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -250,6 +259,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -259,8 +271,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -662,8 +677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -674,29 +689,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
-      <c r="U1" s="8"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
+      <c r="T1" s="8"/>
+      <c r="U1" s="9"/>
     </row>
     <row r="2" spans="1:21" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
@@ -783,7 +798,7 @@
       <c r="G3" s="1">
         <v>5</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="6" t="s">
         <v>19</v>
       </c>
       <c r="I3" s="1"/>
@@ -845,7 +860,7 @@
       </c>
       <c r="B5" s="3">
         <f ca="1">DATE(2019,11,7)-TODAY()</f>
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>17</v>
@@ -862,4 +877,186 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="12.75" customWidth="1"/>
+    <col min="2" max="3" width="11.875" customWidth="1"/>
+    <col min="4" max="4" width="11.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
+      <c r="T1" s="8"/>
+      <c r="U1" s="9"/>
+    </row>
+    <row r="2" spans="1:21" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="1"/>
+      <c r="B2" s="4">
+        <v>10.7</v>
+      </c>
+      <c r="C2" s="4">
+        <v>10.8</v>
+      </c>
+      <c r="D2" s="4">
+        <v>10.9</v>
+      </c>
+      <c r="E2" s="4">
+        <v>10.1</v>
+      </c>
+      <c r="F2" s="4">
+        <v>10.11</v>
+      </c>
+      <c r="G2" s="4">
+        <v>10.119999999999999</v>
+      </c>
+      <c r="H2" s="4">
+        <v>10.130000000000001</v>
+      </c>
+      <c r="I2" s="4">
+        <v>10.14</v>
+      </c>
+      <c r="J2" s="4">
+        <v>10.15</v>
+      </c>
+      <c r="K2" s="4">
+        <v>10.16</v>
+      </c>
+      <c r="L2" s="4">
+        <v>10.17</v>
+      </c>
+      <c r="M2" s="4">
+        <v>10.18</v>
+      </c>
+      <c r="N2" s="4">
+        <v>10.19</v>
+      </c>
+      <c r="O2" s="4">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="P2" s="4">
+        <v>10.210000000000001</v>
+      </c>
+      <c r="Q2" s="4">
+        <v>10.220000000000001</v>
+      </c>
+      <c r="R2" s="4">
+        <v>10.23</v>
+      </c>
+      <c r="S2" s="4">
+        <v>10.24</v>
+      </c>
+      <c r="T2" s="4">
+        <v>10.25</v>
+      </c>
+      <c r="U2" s="4">
+        <v>10.26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+    </row>
+    <row r="4" spans="1:21" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+    </row>
+    <row r="5" spans="1:21" ht="70.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="3">
+        <f ca="1">DATE(2019,11,7)-TODAY()</f>
+        <v>32</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="10">
+        <f>24+50+36+28+28</f>
+        <v>166</v>
+      </c>
+      <c r="G5" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:U1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>